--- a/projects.xlsx
+++ b/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new portfolio\rohan-learns-ai-main\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD90DC8A-D9DF-4F64-87AC-B15245D9EAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783DB7D-EDEB-4B86-8FF0-BAE8F4692272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0AB1B34F-2472-4F04-A4F2-B478495E2144}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>title</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>A program that would work as a virtual camera and censor specific subject/object</t>
+  </si>
+  <si>
+    <t>OpenCV, YOLO V8, Undefined</t>
+  </si>
+  <si>
+    <t>https://github.com/JokhonApniRohan/Censor-Buddy</t>
+  </si>
+  <si>
+    <t>Censor Buddy</t>
   </si>
 </sst>
 </file>
@@ -517,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD158B-D770-49CD-8719-CCD5E7CBFFA8}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,6 +706,23 @@
         <v>37</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{1F2A388C-A40B-4FA3-B41C-F702F352F3E1}"/>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new portfolio\rohan-learns-ai-main\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783DB7D-EDEB-4B86-8FF0-BAE8F4692272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084F73A-C341-484A-93F7-7DB5C1AC3D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0AB1B34F-2472-4F04-A4F2-B478495E2144}"/>
   </bookViews>
@@ -203,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,6 +214,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -532,7 +533,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +717,7 @@
       <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
@@ -732,6 +733,7 @@
     <hyperlink ref="D7" r:id="rId5" xr:uid="{F64A80F0-7415-490F-A5B9-114DD1611C51}"/>
     <hyperlink ref="D8" r:id="rId6" xr:uid="{396E00AF-B1F4-42BF-9E37-623573F10501}"/>
     <hyperlink ref="D9" r:id="rId7" xr:uid="{E69E7788-BF79-40EB-A69B-56561483B179}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{5C286FDF-BE32-49E2-8465-E19C9BB8FA30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
